--- a/data/hotels_by_city/Houston/Houston_shard_18.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d142353-Reviews-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Americas-Best-Value-Inn-Near-NRG-ParkMedical-Center.h56816.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,591 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r578792469-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>142353</t>
+  </si>
+  <si>
+    <t>578792469</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Business- OTC</t>
+  </si>
+  <si>
+    <t>I stayed here during a business trip. The cons of this place outweigh the pros. Might be an okay place for a bachelor but will not recommend for a lady. Cons:1. Room doors facing outside. No security; Feels unsafe especially for a young woman moving around alone.2. Musty smell upon entering the room which was quite overpowering.3. Beds worn out and uncomfortably soft.4. Motel has a rodent problem. Came back to the room AFTER housekeeping was there and found RAT FAECES on the towels.5. Also had a Catchmaster under the sink which was filthy (with I can't even recognise what).6. Shower backs up after about 1 minute of running water and takes hours to drain.7. General area is downscale with a couple homeless people walking around.Pros:1. Rooms appeared clean until rat faeces was found. Housekeeping everyday.2. Front desk staff and owner were pleasant people.3. 15 minute walk to NRG Stadium.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jay P, General Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here during a business trip. The cons of this place outweigh the pros. Might be an okay place for a bachelor but will not recommend for a lady. Cons:1. Room doors facing outside. No security; Feels unsafe especially for a young woman moving around alone.2. Musty smell upon entering the room which was quite overpowering.3. Beds worn out and uncomfortably soft.4. Motel has a rodent problem. Came back to the room AFTER housekeeping was there and found RAT FAECES on the towels.5. Also had a Catchmaster under the sink which was filthy (with I can't even recognise what).6. Shower backs up after about 1 minute of running water and takes hours to drain.7. General area is downscale with a couple homeless people walking around.Pros:1. Rooms appeared clean until rat faeces was found. Housekeeping everyday.2. Front desk staff and owner were pleasant people.3. 15 minute walk to NRG Stadium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r578181563-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578181563</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>a Conscientiously operated property</t>
+  </si>
+  <si>
+    <t>I stayed here for a Convention that I was working at and found a gem of a little Inn.  The proprietor, Jay is a very generous, thoughtful man who goes out of his way to make his guests comfortable and happy.  The majority of his guests are patients undergoing ongoing treatment at MD Anderson Cancer center.  He makes sure that they have secure, clean rooms and is very happy to hear of any repairs or improvements that may be needed in the guest rooms.  The front desk staff are courteous and helpful.  I can't say enough good things about Bertha.  Also, their complimentary shuttle is a pleasant experience and Dipan is polite and cares about where you need to be and when.  The entire hotel staff places the patients ahead of their non medical guests as they are priority.  This was fine with me as I feel the same way.  If you aren't a Medical Center patient and don't like to be a second priority, don't stay here.  Otherwise, you won't be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Jay P, General Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for a Convention that I was working at and found a gem of a little Inn.  The proprietor, Jay is a very generous, thoughtful man who goes out of his way to make his guests comfortable and happy.  The majority of his guests are patients undergoing ongoing treatment at MD Anderson Cancer center.  He makes sure that they have secure, clean rooms and is very happy to hear of any repairs or improvements that may be needed in the guest rooms.  The front desk staff are courteous and helpful.  I can't say enough good things about Bertha.  Also, their complimentary shuttle is a pleasant experience and Dipan is polite and cares about where you need to be and when.  The entire hotel staff places the patients ahead of their non medical guests as they are priority.  This was fine with me as I feel the same way.  If you aren't a Medical Center patient and don't like to be a second priority, don't stay here.  Otherwise, you won't be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r570854136-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570854136</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Friendly, courteous front desk employees.  Clean and spacious rooms.</t>
+  </si>
+  <si>
+    <t>The front desk staff are all friendly, and courteous.  The shuttle drivers and housekeepers are always very friendly and courteous as well.  The hotel lobby is clean and the breakfast is always fresh.  The rooms are clean and spacious (the A/C's, refrigerators and microwaves are clean and work very well). And the shuttle vans are nice and clean. In 2017, I spent over 130 days at this hotel and I was very pleased.  And I will continue to stay here when I come to Houston for cancer treatment.  It's nice to stay somewhere where you are treated like family!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Jay P, Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>The front desk staff are all friendly, and courteous.  The shuttle drivers and housekeepers are always very friendly and courteous as well.  The hotel lobby is clean and the breakfast is always fresh.  The rooms are clean and spacious (the A/C's, refrigerators and microwaves are clean and work very well). And the shuttle vans are nice and clean. In 2017, I spent over 130 days at this hotel and I was very pleased.  And I will continue to stay here when I come to Houston for cancer treatment.  It's nice to stay somewhere where you are treated like family!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r554623546-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554623546</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Medical Rate = Joke</t>
+  </si>
+  <si>
+    <t>Stayed here because my dad was in the hospital. We asked for the medical rate and was told it was $85 a night. We found out another couple was given a different rate. Not.knowing how long my dad would be in the hospital, they said we could pay/reserve daily. So, we check in. We were told the beds were queen, but I guarantee they are doubles...small. The bathtub had a big blue stain and leaked. The telephone fell apart when we picked it up to call the desk about the free shuttle service they offered (which, by the way, was also a joke). We went to bed and woke to make it to the free breakfast. Haha...It was donuts, bread for toast, apples, bananas and cereal. Anyway, we dealt with it. Took the shuttle to the hospital and then, due to freezing conditions in Houston, called to check when the shuttle would be running. They said they shut it down. What??? I asked how we were supposed to get back and why they hadn't called us. It wasn't 2 minutes later they called us back to tell us the shuttle would be there in 5 minutes to pick us up. We finally get back to the hotel and find our beds were stripped, but they did leave our luggage and belongings there for us. That morning we did book the room for another night. The office personnel looked dazed and...Stayed here because my dad was in the hospital. We asked for the medical rate and was told it was $85 a night. We found out another couple was given a different rate. Not.knowing how long my dad would be in the hospital, they said we could pay/reserve daily. So, we check in. We were told the beds were queen, but I guarantee they are doubles...small. The bathtub had a big blue stain and leaked. The telephone fell apart when we picked it up to call the desk about the free shuttle service they offered (which, by the way, was also a joke). We went to bed and woke to make it to the free breakfast. Haha...It was donuts, bread for toast, apples, bananas and cereal. Anyway, we dealt with it. Took the shuttle to the hospital and then, due to freezing conditions in Houston, called to check when the shuttle would be running. They said they shut it down. What??? I asked how we were supposed to get back and why they hadn't called us. It wasn't 2 minutes later they called us back to tell us the shuttle would be there in 5 minutes to pick us up. We finally get back to the hotel and find our beds were stripped, but they did leave our luggage and belongings there for us. That morning we did book the room for another night. The office personnel looked dazed and confused. The shuttle driver was sent to our room to make beds and get us clean towels and wash cloths. Poor guy. While he was there we had him fix our phone. He had to replace two different cords. So...third day we wake to same nasty breakfast, minus donuts, and book the room for that night. Shuttle not running due to the weather. However, roads were good. I drove to the hospital without any difficulty. Come back for the night and the rooms were not serviced. Beds not made and dirty towels not replaced. Wow... could it get any worse? Yes! They mess up the billing and tried to bill my aunt for three nights when we had already given them another card to bill for nights 2-3. We didn't think it would ever get straightened out. Well, we were glad to pull out of that hotel. Bad experience all around. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Stayed here because my dad was in the hospital. We asked for the medical rate and was told it was $85 a night. We found out another couple was given a different rate. Not.knowing how long my dad would be in the hospital, they said we could pay/reserve daily. So, we check in. We were told the beds were queen, but I guarantee they are doubles...small. The bathtub had a big blue stain and leaked. The telephone fell apart when we picked it up to call the desk about the free shuttle service they offered (which, by the way, was also a joke). We went to bed and woke to make it to the free breakfast. Haha...It was donuts, bread for toast, apples, bananas and cereal. Anyway, we dealt with it. Took the shuttle to the hospital and then, due to freezing conditions in Houston, called to check when the shuttle would be running. They said they shut it down. What??? I asked how we were supposed to get back and why they hadn't called us. It wasn't 2 minutes later they called us back to tell us the shuttle would be there in 5 minutes to pick us up. We finally get back to the hotel and find our beds were stripped, but they did leave our luggage and belongings there for us. That morning we did book the room for another night. The office personnel looked dazed and...Stayed here because my dad was in the hospital. We asked for the medical rate and was told it was $85 a night. We found out another couple was given a different rate. Not.knowing how long my dad would be in the hospital, they said we could pay/reserve daily. So, we check in. We were told the beds were queen, but I guarantee they are doubles...small. The bathtub had a big blue stain and leaked. The telephone fell apart when we picked it up to call the desk about the free shuttle service they offered (which, by the way, was also a joke). We went to bed and woke to make it to the free breakfast. Haha...It was donuts, bread for toast, apples, bananas and cereal. Anyway, we dealt with it. Took the shuttle to the hospital and then, due to freezing conditions in Houston, called to check when the shuttle would be running. They said they shut it down. What??? I asked how we were supposed to get back and why they hadn't called us. It wasn't 2 minutes later they called us back to tell us the shuttle would be there in 5 minutes to pick us up. We finally get back to the hotel and find our beds were stripped, but they did leave our luggage and belongings there for us. That morning we did book the room for another night. The office personnel looked dazed and confused. The shuttle driver was sent to our room to make beds and get us clean towels and wash cloths. Poor guy. While he was there we had him fix our phone. He had to replace two different cords. So...third day we wake to same nasty breakfast, minus donuts, and book the room for that night. Shuttle not running due to the weather. However, roads were good. I drove to the hospital without any difficulty. Come back for the night and the rooms were not serviced. Beds not made and dirty towels not replaced. Wow... could it get any worse? Yes! They mess up the billing and tried to bill my aunt for three nights when we had already given them another card to bill for nights 2-3. We didn't think it would ever get straightened out. Well, we were glad to pull out of that hotel. Bad experience all around. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r511559866-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511559866</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Medical checkup</t>
+  </si>
+  <si>
+    <t>Nice folks! Clean rooms. Reasonable medical rate. Free shuttle to and from Medical Center. Near restaurants and grocery stores within walking distance. Felt very safe in area. City transportation also nearby. Never needed a car. Always bus or rail nearby. Will definitely return!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Jay P, Front Office Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Nice folks! Clean rooms. Reasonable medical rate. Free shuttle to and from Medical Center. Near restaurants and grocery stores within walking distance. Felt very safe in area. City transportation also nearby. Never needed a car. Always bus or rail nearby. Will definitely return!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r504323308-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504323308</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr appointment </t>
+  </si>
+  <si>
+    <t>My girls and I stayed here. The staff was very friendly and was very helpful. It was a very family setting. Was very quit the rooms very clean. All staff treated you like family. Very reasonable in price. Also very close to the hospital and all kinds of stores and restaurants. I highly recommend for you to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jay P, Front Office Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>My girls and I stayed here. The staff was very friendly and was very helpful. It was a very family setting. Was very quit the rooms very clean. All staff treated you like family. Very reasonable in price. Also very close to the hospital and all kinds of stores and restaurants. I highly recommend for you to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r464037686-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464037686</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>MDA stay</t>
+  </si>
+  <si>
+    <t>With the help of the hospital we stayed here. I love the location. I walked to several places during down time and figured my way around pretty quick. The rooms were comfy and hotel staff was nice. Continental breakfast is offered but if prefer something else IHOP and Dennys is near off I610. No problems what so ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Jay P, General Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>With the help of the hospital we stayed here. I love the location. I walked to several places during down time and figured my way around pretty quick. The rooms were comfy and hotel staff was nice. Continental breakfast is offered but if prefer something else IHOP and Dennys is near off I610. No problems what so ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r458106932-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458106932</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Weekend Stay</t>
+  </si>
+  <si>
+    <t>Very happy with our stay. Family run business and they do genuinely care. Rooms are very basic but clean. You do get a flat screen tv and a larger sized mini fridge than you would normally expect. Happened to notice that when checking out the family gets to know the guests staying for medical center visits and goes out of their way to help them with anything they may need. We stayed in room 226 - just know they do not have elevators. Walking distance to many restaurants &amp; the stadium. Reasonably close to downtown and Rice Village too. They have a shuttle van but we did not use it. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Very happy with our stay. Family run business and they do genuinely care. Rooms are very basic but clean. You do get a flat screen tv and a larger sized mini fridge than you would normally expect. Happened to notice that when checking out the family gets to know the guests staying for medical center visits and goes out of their way to help them with anything they may need. We stayed in room 226 - just know they do not have elevators. Walking distance to many restaurants &amp; the stadium. Reasonably close to downtown and Rice Village too. They have a shuttle van but we did not use it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r450764305-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450764305</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>excellent service</t>
+  </si>
+  <si>
+    <t>Management has done an excellent Job with renovations and updates. The staff is always kind and respectful to us when we stay. The continental breakfast is amazing and they also offer a free shuttle to get to and from MD Anderson. is it the newest no it is not, however the service the ownership and staff give each guest is the best I have ever gotten. I will only stay at this hotel as you can't put a price on excellent servicethank youMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management has done an excellent Job with renovations and updates. The staff is always kind and respectful to us when we stay. The continental breakfast is amazing and they also offer a free shuttle to get to and from MD Anderson. is it the newest no it is not, however the service the ownership and staff give each guest is the best I have ever gotten. I will only stay at this hotel as you can't put a price on excellent servicethank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r366029062-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>366029062</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Clean with nice staff</t>
+  </si>
+  <si>
+    <t>This motel was very clean and appears to have been recently updated.  The only negatives were that it was located in a strange place which made it a little hard to find and our room had foundations issues which made us feel like we were in the old "Batman" TV show due to the slope of the floor. Nothing big. The staff was very nice and helped with a problem I had from the site I booked the room on.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This motel was very clean and appears to have been recently updated.  The only negatives were that it was located in a strange place which made it a little hard to find and our room had foundations issues which made us feel like we were in the old "Batman" TV show due to the slope of the floor. Nothing big. The staff was very nice and helped with a problem I had from the site I booked the room on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r334718110-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334718110</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Clean and friendly service. Perfect for Medical Center</t>
+  </si>
+  <si>
+    <t>We were satisfied. The room that we stayed in was dated but was clean. The service was friendly and the shuttle was always on time.  The distance to the medical center was short and easy. We will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Jay P, Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>We were satisfied. The room that we stayed in was dated but was clean. The service was friendly and the shuttle was always on time.  The distance to the medical center was short and easy. We will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r332568493-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332568493</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>My goal was met</t>
+  </si>
+  <si>
+    <t>My goal was to get a clean room within walking distance of NRG stadium and that is exactly what we got. I reserved a non smoking room. We got a smoking room but the only way we knew was due to the placement of ashtrays - no smoke smell. The mattresses were firm. The pillows were a little lacking. Not a 5 star hotel but that is not what you are paying for either. Its a good cheap deal!MoreShow less</t>
+  </si>
+  <si>
+    <t>My goal was to get a clean room within walking distance of NRG stadium and that is exactly what we got. I reserved a non smoking room. We got a smoking room but the only way we knew was due to the placement of ashtrays - no smoke smell. The mattresses were firm. The pillows were a little lacking. Not a 5 star hotel but that is not what you are paying for either. Its a good cheap deal!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r282119853-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282119853</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Everything you need</t>
+  </si>
+  <si>
+    <t>This is my second visit here... Always clean and adequate .... Everything you'll find in a large hotel in a clean quiet safe quaint motel. They even have jacuzzi tub rooms under 100.00 ... Very nice I might add.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r261973815-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261973815</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Mold and Dirty Socks!</t>
+  </si>
+  <si>
+    <t>Yes this is walking distance to the Rodeo /NRG park .......but so not worth it! Mold everywhere , dirty socks( not kidding) outside rooms. Dirty rooms, rugs, anthropomorphic falling apart ! Yuck Free breakfast ... joke</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r254369757-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254369757</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>intrepid traveller</t>
+  </si>
+  <si>
+    <t>rooms clean.  trouble with key for one of our two rooms.  breakfast BLEAK.  breakfast the very minimum one could call a "continental breakfast."  reception area tiny.  This was important because we were considering it for a five week stay.  we decided because of bleak breakfast and tiny reception area we would not recommend anyone to have an extended stay there.  cost reasonable and free shuttle to MdAnderson.  staff friendly and polite.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r212648712-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212648712</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>For what it is worth</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, safe and reasonable. I had the fortune of staying in one of their recently remodeled rooms. I personally am not a big fan of the external walk-way entry. but the room was okay. the A/C worked great and in Houston that is a big deal. There were plenty of places to eat and shop within walking distance. I don't call what they serve breakfast. But it is edible. The pastries and fruit are fine. The table in my room had seen better days. But the bed and the bath fixtures were great. They also have a shuttle to the hospitals if you are there for medical reasons. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, safe and reasonable. I had the fortune of staying in one of their recently remodeled rooms. I personally am not a big fan of the external walk-way entry. but the room was okay. the A/C worked great and in Houston that is a big deal. There were plenty of places to eat and shop within walking distance. I don't call what they serve breakfast. But it is edible. The pastries and fruit are fine. The table in my room had seen better days. But the bed and the bath fixtures were great. They also have a shuttle to the hospitals if you are there for medical reasons. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r202900862-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202900862</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Roach Hotel</t>
+  </si>
+  <si>
+    <t>I'm not super picky when it comes to upkeep, but cleanliness is another thing. Roaches, everywhere. Seriously. We left as soon as we saw double digits of our crusty brown roommates. The guy working was really nice and gave us a full refund, but that place needs some serious TLC.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r198162152-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198162152</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Hotel close to Reliant Park, easy to walk.  That is the only advantage, loud, noisy, dirty and not that cheap.  Overall would not stay in this chain again.  Beds uncomfortable, and everyone who walks past appears to be shouting.  Construction work on hotel also started at 6am</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r168099959-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168099959</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>WANT BUGS, RATS AND DISRESPECT ? THIS IS YOUR HOTEL !!!</t>
+  </si>
+  <si>
+    <t>I stayed at this dump while visiting MD ANDERSON MEDICAL CENTER, JUNE 2013.  The ONLY THING GOOD about this hotel is the location; it is only about a mile from the hospital.  If you want a nasty, low-life, redneck-type hotel, filled with bugs and rodents, owned and operated by prejudice, wealthy India and Mexican persons, THEN THIS IS YOUR HOTEL !!! 
+I have been associated with the hotel business for over FORTY years and I have never seen a dump like this one or owners with such stingy, penny pinching, hateful, haughty, prejudice and disrespectful attitudes.  
+The girl at the front desk, who appeared to be a Mexican, seemed distant, RUDE, hateful, prejudice and was very argumentative with us when we checked in. I had called and told her earlier on the road, that I could not climb stairs and this same person told me, on the phone, There was a non-smoking ground floor room available and she would save it for me.  When we got there, of course, there was no ground floor room available except a smoking room.  We took the smoking room anyway and everything we had in the room still smells like cigarette smoke to this day !!! 
+The lobby (if you can call that a lobby) was so cramped and small that you could not turn around without brushing up against the cheap lobby furniture !!! It was highly cluttered with pamphlets, newspapers and smelled...I stayed at this dump while visiting MD ANDERSON MEDICAL CENTER, JUNE 2013.  The ONLY THING GOOD about this hotel is the location; it is only about a mile from the hospital.  If you want a nasty, low-life, redneck-type hotel, filled with bugs and rodents, owned and operated by prejudice, wealthy India and Mexican persons, THEN THIS IS YOUR HOTEL !!! I have been associated with the hotel business for over FORTY years and I have never seen a dump like this one or owners with such stingy, penny pinching, hateful, haughty, prejudice and disrespectful attitudes.  The girl at the front desk, who appeared to be a Mexican, seemed distant, RUDE, hateful, prejudice and was very argumentative with us when we checked in. I had called and told her earlier on the road, that I could not climb stairs and this same person told me, on the phone, There was a non-smoking ground floor room available and she would save it for me.  When we got there, of course, there was no ground floor room available except a smoking room.  We took the smoking room anyway and everything we had in the room still smells like cigarette smoke to this day !!! The lobby (if you can call that a lobby) was so cramped and small that you could not turn around without brushing up against the cheap lobby furniture !!! It was highly cluttered with pamphlets, newspapers and smelled of curry and food from India !!!The picture on the web site of this property is misleading; the hotel is squeezed between two adjoining streets and it is difficult to get into the parking lot without being rear-ended by traffic on Main Street.  The entrance is right out on the street and it is a huge bump when you drive into the cramped parking lot !!!  The parking lot is cluttered with hotel equipment, hotel vans, the owners Lexus and it winds around many obstacles; people park all over the place. You have to drive around these hurdles to get to your room. There is a TACO SHACK next door to the hotel and their mess could be seen from our room; not to mention the all-night noise at the drive-thru each and every night !!!   There was also a sandwich / hot dog stand in the parking lot taking up space at the rear of the hotel. There was a dead bird and a dead rodent in the parking lot for us to look at out the window of our room.  They were NEVER REMOVED BY THE STAFF and we were there for FOUR DAYS !!!This horrible hotel has outside room access and the parking spaces are so narrow you can hardly get out of your car !!! There was something sticky on the parking lot by our room and my shoes stuck fast to the pavement !!!  I asked a man, who was washing the owners brand new Lexus, if he would wash the lot by our room, but he was a Mexican who did not speak English; he ignored me.After that, upon entering our room, we found it to be in need of UPDATING !!!  The room decor was early 1960's throughout the very small cramped hovel. The furniture was old, scarred, stained and the curtains were cheap looking.  The room had a border around the ceiling that went out with ladies hats !!! When we switched on the lights between the beds, they went on and off, on and off and made a frying sound as if there was a bad switch.  The room was hot and damp smelling when we arrived, so we turned the A/C unit on 70 degrees and left to get some dinner.  When we returned, the room was still HOT, DAMP and smelled like a mildewed sauna !!!  We had to turn the temperature on the A/C unit down to 50 degrees to get it to cool.  Even then, the room was semi-hot for our entire stay !!!I stepped into the bathroom for a shower and noticed the ceiling exhaust fan was about to fall into the floor !!! The ceiling was all cracked around it and it made an enormously LOUD whining and rattling noise !!! There were bugs that ran for their lives when I switched on the light.  You could not switch on the light in the bathroom without the fan also coming on.  Then when I got into the shower, I turned on the water and it immediately began to fill the tub !!!  I tried to work with the drain/plug piece, but HAIR started coming up in the tub with me from the drain !!!  I poured hot-scalding water from the coffee pot down the drain several times and it would help, but then a day later the problem came back !!!  When I filled the coffee pot for this operation, the sink faucets would leak out all over the sink counter and drip in the floor !!!  The management was told, but no actions were take to resolve ANY of the rooms problems !!!I got right out of the shower and went to the phone to call for help.  However, the phone had a buzzing noise on the line and it was almost impossible for the from desk person to hear me.  They sent the same Mexican man, who was washing the owner's Lexus, down to repair the hair problem. This ignorant soul came a total of FOUR TIMES and NEVER SOLVED THE HAIR-IN-TUB PROBLEM.  The manager / owner came once, but he was too stupid and too stingy to repair anything !!!  There was hair and about ten inches of water in the tub to slosh around in, every time we took a shower !!!  Also, the shower curtain was too short and not long enough to seal off the shower water.  The floor was soaked with water each time a shower was taken !!!Then there was the toilet problem; each time we flushed the toilet, it would not go down all the way and took about a minute to flush !!!  It was very slow draining even if you just had to pee !!!When we turned down our beds, we noticed that the sheets were too small for the beds.  They came out and would be in a mess after just laying there for a few minutes. This would be like placing a double sheet on a queen size bed !!!After wrestling with the bed clothes, we decided to relax a little and switched on the OLD TUBE-TYPE television.  EVERY CHANNEL WAS SO FUZZY you could barely make out the shows.  Also, there was very few fuzzy channels to watch since we got only about 20 channels !!!Upon awakening to LOUD NOISES from A LOUD RUDE HOUSEKEEPING CART outside our room, our room was entered by the maid with a DO NOT DISTURB sign on the door knob.  Thank goodness we were clothed in decency when she barged in.After this, we walked through the sticky / cluttered parking lot to the lobby (more like a closet) to get some free breakfast.  I walked into the cramped lobby and over in the right corner was a small table with a small clear cabinet of pastries.  I got a plate and a bowl for cereal and began to choose my breakfast delights.  The donut and twist pastry I got was as hard as a rock and there was NO MILK for my cereal.  The only other thing available was a dirty coffee pot with a rack of sugar, creamers and stir sticks beside it !!!  Oh yeah, I almost forgot; there was a bowl of spoiled, dried out and over-ripe fruit on another table, but I did not get any of those fruits for fear of being poisoned !!!After that wonderful and un-fresh breakfast, my roommate decided to visit the pool.   He returned very soon saying that the pool was nasty, cluttered with pool equipment, smelled stagnant and left a slime on his body when he came out of it.  He had to shower TWICE to remove the stench that was left on him from the NASTY POOL !!!In my entire life, I have NEVER STAYED AT A HOTEL AS BAD AS THIS ONE !!!  I highly recommend that you avoid this property at ANY cost !!!!!! DO NOT STAY AT THIS HOTEL !!!!Ed H of Chattanooga, TNMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this dump while visiting MD ANDERSON MEDICAL CENTER, JUNE 2013.  The ONLY THING GOOD about this hotel is the location; it is only about a mile from the hospital.  If you want a nasty, low-life, redneck-type hotel, filled with bugs and rodents, owned and operated by prejudice, wealthy India and Mexican persons, THEN THIS IS YOUR HOTEL !!! 
+I have been associated with the hotel business for over FORTY years and I have never seen a dump like this one or owners with such stingy, penny pinching, hateful, haughty, prejudice and disrespectful attitudes.  
+The girl at the front desk, who appeared to be a Mexican, seemed distant, RUDE, hateful, prejudice and was very argumentative with us when we checked in. I had called and told her earlier on the road, that I could not climb stairs and this same person told me, on the phone, There was a non-smoking ground floor room available and she would save it for me.  When we got there, of course, there was no ground floor room available except a smoking room.  We took the smoking room anyway and everything we had in the room still smells like cigarette smoke to this day !!! 
+The lobby (if you can call that a lobby) was so cramped and small that you could not turn around without brushing up against the cheap lobby furniture !!! It was highly cluttered with pamphlets, newspapers and smelled...I stayed at this dump while visiting MD ANDERSON MEDICAL CENTER, JUNE 2013.  The ONLY THING GOOD about this hotel is the location; it is only about a mile from the hospital.  If you want a nasty, low-life, redneck-type hotel, filled with bugs and rodents, owned and operated by prejudice, wealthy India and Mexican persons, THEN THIS IS YOUR HOTEL !!! I have been associated with the hotel business for over FORTY years and I have never seen a dump like this one or owners with such stingy, penny pinching, hateful, haughty, prejudice and disrespectful attitudes.  The girl at the front desk, who appeared to be a Mexican, seemed distant, RUDE, hateful, prejudice and was very argumentative with us when we checked in. I had called and told her earlier on the road, that I could not climb stairs and this same person told me, on the phone, There was a non-smoking ground floor room available and she would save it for me.  When we got there, of course, there was no ground floor room available except a smoking room.  We took the smoking room anyway and everything we had in the room still smells like cigarette smoke to this day !!! The lobby (if you can call that a lobby) was so cramped and small that you could not turn around without brushing up against the cheap lobby furniture !!! It was highly cluttered with pamphlets, newspapers and smelled of curry and food from India !!!The picture on the web site of this property is misleading; the hotel is squeezed between two adjoining streets and it is difficult to get into the parking lot without being rear-ended by traffic on Main Street.  The entrance is right out on the street and it is a huge bump when you drive into the cramped parking lot !!!  The parking lot is cluttered with hotel equipment, hotel vans, the owners Lexus and it winds around many obstacles; people park all over the place. You have to drive around these hurdles to get to your room. There is a TACO SHACK next door to the hotel and their mess could be seen from our room; not to mention the all-night noise at the drive-thru each and every night !!!   There was also a sandwich / hot dog stand in the parking lot taking up space at the rear of the hotel. There was a dead bird and a dead rodent in the parking lot for us to look at out the window of our room.  They were NEVER REMOVED BY THE STAFF and we were there for FOUR DAYS !!!This horrible hotel has outside room access and the parking spaces are so narrow you can hardly get out of your car !!! There was something sticky on the parking lot by our room and my shoes stuck fast to the pavement !!!  I asked a man, who was washing the owners brand new Lexus, if he would wash the lot by our room, but he was a Mexican who did not speak English; he ignored me.After that, upon entering our room, we found it to be in need of UPDATING !!!  The room decor was early 1960's throughout the very small cramped hovel. The furniture was old, scarred, stained and the curtains were cheap looking.  The room had a border around the ceiling that went out with ladies hats !!! When we switched on the lights between the beds, they went on and off, on and off and made a frying sound as if there was a bad switch.  The room was hot and damp smelling when we arrived, so we turned the A/C unit on 70 degrees and left to get some dinner.  When we returned, the room was still HOT, DAMP and smelled like a mildewed sauna !!!  We had to turn the temperature on the A/C unit down to 50 degrees to get it to cool.  Even then, the room was semi-hot for our entire stay !!!I stepped into the bathroom for a shower and noticed the ceiling exhaust fan was about to fall into the floor !!! The ceiling was all cracked around it and it made an enormously LOUD whining and rattling noise !!! There were bugs that ran for their lives when I switched on the light.  You could not switch on the light in the bathroom without the fan also coming on.  Then when I got into the shower, I turned on the water and it immediately began to fill the tub !!!  I tried to work with the drain/plug piece, but HAIR started coming up in the tub with me from the drain !!!  I poured hot-scalding water from the coffee pot down the drain several times and it would help, but then a day later the problem came back !!!  When I filled the coffee pot for this operation, the sink faucets would leak out all over the sink counter and drip in the floor !!!  The management was told, but no actions were take to resolve ANY of the rooms problems !!!I got right out of the shower and went to the phone to call for help.  However, the phone had a buzzing noise on the line and it was almost impossible for the from desk person to hear me.  They sent the same Mexican man, who was washing the owner's Lexus, down to repair the hair problem. This ignorant soul came a total of FOUR TIMES and NEVER SOLVED THE HAIR-IN-TUB PROBLEM.  The manager / owner came once, but he was too stupid and too stingy to repair anything !!!  There was hair and about ten inches of water in the tub to slosh around in, every time we took a shower !!!  Also, the shower curtain was too short and not long enough to seal off the shower water.  The floor was soaked with water each time a shower was taken !!!Then there was the toilet problem; each time we flushed the toilet, it would not go down all the way and took about a minute to flush !!!  It was very slow draining even if you just had to pee !!!When we turned down our beds, we noticed that the sheets were too small for the beds.  They came out and would be in a mess after just laying there for a few minutes. This would be like placing a double sheet on a queen size bed !!!After wrestling with the bed clothes, we decided to relax a little and switched on the OLD TUBE-TYPE television.  EVERY CHANNEL WAS SO FUZZY you could barely make out the shows.  Also, there was very few fuzzy channels to watch since we got only about 20 channels !!!Upon awakening to LOUD NOISES from A LOUD RUDE HOUSEKEEPING CART outside our room, our room was entered by the maid with a DO NOT DISTURB sign on the door knob.  Thank goodness we were clothed in decency when she barged in.After this, we walked through the sticky / cluttered parking lot to the lobby (more like a closet) to get some free breakfast.  I walked into the cramped lobby and over in the right corner was a small table with a small clear cabinet of pastries.  I got a plate and a bowl for cereal and began to choose my breakfast delights.  The donut and twist pastry I got was as hard as a rock and there was NO MILK for my cereal.  The only other thing available was a dirty coffee pot with a rack of sugar, creamers and stir sticks beside it !!!  Oh yeah, I almost forgot; there was a bowl of spoiled, dried out and over-ripe fruit on another table, but I did not get any of those fruits for fear of being poisoned !!!After that wonderful and un-fresh breakfast, my roommate decided to visit the pool.   He returned very soon saying that the pool was nasty, cluttered with pool equipment, smelled stagnant and left a slime on his body when he came out of it.  He had to shower TWICE to remove the stench that was left on him from the NASTY POOL !!!In my entire life, I have NEVER STAYED AT A HOTEL AS BAD AS THIS ONE !!!  I highly recommend that you avoid this property at ANY cost !!!!!! DO NOT STAY AT THIS HOTEL !!!!Ed H of Chattanooga, TNMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r136344591-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136344591</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Last Resort</t>
+  </si>
+  <si>
+    <t>On my honeymoon night we had reservations at another INN. Due to a computer error and a Kenny Chesney concert we lost our room. We saw the Econo Lodge down the road and decided to give it a try due to everyone being fully booked. Upon entering the room we noticed cigarette burns in the comforter and roaches on the counter running from the light. When I went to use the restroom I come to find that the toilet didn't even work. I will be back to Houston down the road, but coming back to the Econo Lodge here will be an absolute Last Resort.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r125648395-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125648395</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>Hotel Management based on compassion, a rare and wonderful thing!</t>
+  </si>
+  <si>
+    <t>What impressed me about this hotel is it's compassionate intention.  The focus of this location is to serve patients and their families who are in Houston to receive treatment at the cancer medical centers.  They serve those who are going through a tough time, not those who are on vacation, and this sets their priorities.  The pool area is soon to be converted into a larger reception and waiting area, to accommodate those waiting for the shuttle to the medical center.  This hotel will turn down the opportunity to make more money on event visitors, to keep the prices low for medical center visitors.  They aren't making a lot of money, but are consistently incurring good karma!  One of the priorities is to keep the rooms very clean for patients whose physical health is fragile.  I found the staff to be kind, warm, and caring.  So if you are looking for luxury on vacation, this isn't created for you.  If you and your family need an inexpensive but clean room, kind staff, and a free shuttle to the medical center, this hotel is here serve you in your time of need.  We stayed here while attending a meeting, and found it felt good to stay here, and didn't miss the luxury.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>What impressed me about this hotel is it's compassionate intention.  The focus of this location is to serve patients and their families who are in Houston to receive treatment at the cancer medical centers.  They serve those who are going through a tough time, not those who are on vacation, and this sets their priorities.  The pool area is soon to be converted into a larger reception and waiting area, to accommodate those waiting for the shuttle to the medical center.  This hotel will turn down the opportunity to make more money on event visitors, to keep the prices low for medical center visitors.  They aren't making a lot of money, but are consistently incurring good karma!  One of the priorities is to keep the rooms very clean for patients whose physical health is fragile.  I found the staff to be kind, warm, and caring.  So if you are looking for luxury on vacation, this isn't created for you.  If you and your family need an inexpensive but clean room, kind staff, and a free shuttle to the medical center, this hotel is here serve you in your time of need.  We stayed here while attending a meeting, and found it felt good to stay here, and didn't miss the luxury.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r72410806-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>72410806</t>
+  </si>
+  <si>
+    <t>07/26/2010</t>
+  </si>
+  <si>
+    <t>Good Hotel for a great price</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because my mother in law is in St. Luke's and we found this one at the last minute after midnight.  It looks small and located in a turnaround so hard to find but the rooms are clean and we only paid $58.  Service was good and it is a gated area which made us feel safe beds were comfortable and it had all the necessities:  mini fridge, microwave shampoo, iron, etc.  Offered free coffee and donuts.  Not bad for a last minute hotel</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r71955762-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>71955762</t>
+  </si>
+  <si>
+    <t>07/22/2010</t>
+  </si>
+  <si>
+    <t>Terrible Experience</t>
+  </si>
+  <si>
+    <t>I reserved 2 rooms, both non-smoking. They gave me one non and one smoking! The smell was horrible. The person at the front desk did not do anything to make right what they messed up. The parking space was tight and not enough. There is a reason that this hotel's reviews are low. Not a good experience at all!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r71823368-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>71823368</t>
+  </si>
+  <si>
+    <t>07/21/2010</t>
+  </si>
+  <si>
+    <t>Run  and don't look back!</t>
+  </si>
+  <si>
+    <t>Cheesy room, dirty carpet, no elevator, only provide shuttle service to the hospital. The pool looks like something you don't want to get in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r14285489-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14285489</t>
+  </si>
+  <si>
+    <t>03/14/2008</t>
+  </si>
+  <si>
+    <t>An OK Budget stay</t>
+  </si>
+  <si>
+    <t>This motel is an odd experience.  It's stuck at an intersection of a couple of streets down by the old Astrodome.  It is just down the street from the Medical Center, and is convenient for staying there.  But parking and access is cramped, and I must admit, when I first pulled up, I thought I'd made a mistake.  The front desk personnel were helpful if not overly friendly.  The room was fine for a night or two - it was clean and the sheets were fresh.  The room appeared nicely maintained.  I'd stay there again if needed.  The best part was a little burger place right next door which also served a very nice, inexpensive breakfast.  Don't expect the Ritz, but for the price and location, this motel will serve.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>This motel is an odd experience.  It's stuck at an intersection of a couple of streets down by the old Astrodome.  It is just down the street from the Medical Center, and is convenient for staying there.  But parking and access is cramped, and I must admit, when I first pulled up, I thought I'd made a mistake.  The front desk personnel were helpful if not overly friendly.  The room was fine for a night or two - it was clean and the sheets were fresh.  The room appeared nicely maintained.  I'd stay there again if needed.  The best part was a little burger place right next door which also served a very nice, inexpensive breakfast.  Don't expect the Ritz, but for the price and location, this motel will serve.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r3343739-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3343739</t>
+  </si>
+  <si>
+    <t>04/07/2005</t>
+  </si>
+  <si>
+    <t>disapointing</t>
+  </si>
+  <si>
+    <t>the van drivers are very strict about schedule, both timing and stops. no amount of $ can make a difference even to cross the street. there were no phone books in the room and when i requested one, i was refferred back to a folder listing a few area resturants (not recomended). i also had a swarm of ants appear just after checking in and they promptly got the spray - which took care of them, but i had to live with the smell.there is a few resturants and grocery nearby.</t>
+  </si>
+  <si>
+    <t>February 2004</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r2674257-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>2674257</t>
+  </si>
+  <si>
+    <t>10/08/2004</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>Location, comfort, and attitude of management are three good reasons why the Econolodge Medical Center is a good place to stay. It is an older motel, but the rooms have been recently refurbished and they are clean and nicely appointed. I particularly appreciate the bed with a pillow-top mattress, the comfortable easy chair,  the microwave and refrigerator, and the continental breakfast. It is a good place to stay when you don't have a car because the shuttles from both Hobby and International airports will take you right to this motel, and the complimentary motel shuttle service will take you to and from the medical center. Management is so concerned about the comfort of their visitors that they provide a step-stool to make it easy to get into and out of their new 14-passenger Ford van. This EconoLodge is located within one-to-three blocks of a variety of good restaurants, drug stores, and two supermarkets, again making it easy for the car-less visitor.  I have stayed there three times, and I plan to return whenever I am in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Location, comfort, and attitude of management are three good reasons why the Econolodge Medical Center is a good place to stay. It is an older motel, but the rooms have been recently refurbished and they are clean and nicely appointed. I particularly appreciate the bed with a pillow-top mattress, the comfortable easy chair,  the microwave and refrigerator, and the continental breakfast. It is a good place to stay when you don't have a car because the shuttles from both Hobby and International airports will take you right to this motel, and the complimentary motel shuttle service will take you to and from the medical center. Management is so concerned about the comfort of their visitors that they provide a step-stool to make it easy to get into and out of their new 14-passenger Ford van. This EconoLodge is located within one-to-three blocks of a variety of good restaurants, drug stores, and two supermarkets, again making it easy for the car-less visitor.  I have stayed there three times, and I plan to return whenever I am in this area.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1123,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1155,1772 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>96</v>
+      </c>
+      <c r="X11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_18.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_18.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r587402647-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>142353</t>
+  </si>
+  <si>
+    <t>587402647</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Great stay near the city center</t>
+  </si>
+  <si>
+    <t>Dipan, the concierge at the welcome desk, was very friendly and helpful. I recommend a stay at their place! Also, the breakfast is included which is awesome to rapidly kickstart the day! The 700 metro line is also walking distance (~10 minutes) from the motel which is very convenient to rapidly connect with the city center (we took it to go to the zoo). Also, be aware that the last departure of the 249 bus line to come back from the Houston Space Center to Houston Downtown is between 5 and 6 pm BEFORE the closure of the museum! Unfortunately, we had to take an Uber to come back... $$$$$ Make sure to well plan the transportation of your trip to the Space Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Jay P, Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Dipan, the concierge at the welcome desk, was very friendly and helpful. I recommend a stay at their place! Also, the breakfast is included which is awesome to rapidly kickstart the day! The 700 metro line is also walking distance (~10 minutes) from the motel which is very convenient to rapidly connect with the city center (we took it to go to the zoo). Also, be aware that the last departure of the 249 bus line to come back from the Houston Space Center to Houston Downtown is between 5 and 6 pm BEFORE the closure of the museum! Unfortunately, we had to take an Uber to come back... $$$$$ Make sure to well plan the transportation of your trip to the Space Center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r579351590-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579351590</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Good place to stay, close to Stadiums.</t>
+  </si>
+  <si>
+    <t>Clean rooms, good A/C. Nice television with good remote and lots of channels to choose from.  Friendly staff, very nice and helpful. The Breakfast was good, again clean counters and fresh fruit, cold milk and cereal. We had a nice stay there, will stay there again, on problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Clean rooms, good A/C. Nice television with good remote and lots of channels to choose from.  Friendly staff, very nice and helpful. The Breakfast was good, again clean counters and fresh fruit, cold milk and cereal. We had a nice stay there, will stay there again, on problems.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r578792469-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>142353</t>
-  </si>
-  <si>
     <t>578792469</t>
   </si>
   <si>
@@ -171,9 +225,6 @@
     <t>I stayed here during a business trip. The cons of this place outweigh the pros. Might be an okay place for a bachelor but will not recommend for a lady. Cons:1. Room doors facing outside. No security; Feels unsafe especially for a young woman moving around alone.2. Musty smell upon entering the room which was quite overpowering.3. Beds worn out and uncomfortably soft.4. Motel has a rodent problem. Came back to the room AFTER housekeeping was there and found RAT FAECES on the towels.5. Also had a Catchmaster under the sink which was filthy (with I can't even recognise what).6. Shower backs up after about 1 minute of running water and takes hours to drain.7. General area is downscale with a couple homeless people walking around.Pros:1. Rooms appeared clean until rat faeces was found. Housekeeping everyday.2. Front desk staff and owner were pleasant people.3. 15 minute walk to NRG Stadium.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -243,6 +294,57 @@
     <t>The front desk staff are all friendly, and courteous.  The shuttle drivers and housekeepers are always very friendly and courteous as well.  The hotel lobby is clean and the breakfast is always fresh.  The rooms are clean and spacious (the A/C's, refrigerators and microwaves are clean and work very well). And the shuttle vans are nice and clean. In 2017, I spent over 130 days at this hotel and I was very pleased.  And I will continue to stay here when I come to Houston for cancer treatment.  It's nice to stay somewhere where you are treated like family!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r568087817-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568087817</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Sister Trip to Houston Rodeo</t>
+  </si>
+  <si>
+    <t>This hotel was average. We had never visited Houston so didn’t know the area but it’s within walking distance to NRG stadium which is nice. They were doing construction across the street which was loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Jay P, Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was average. We had never visited Houston so didn’t know the area but it’s within walking distance to NRG stadium which is nice. They were doing construction across the street which was loud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r566944754-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566944754</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasantly Surprised </t>
+  </si>
+  <si>
+    <t>Room was neat and clean. 1st time ever for one of the kids not to sleep on a roll away bed or fold out. Room had 3 beds. 2 queens and a double. Double had it's own little private hide away. Couldn't find it at 1st. Only draw back was it needed a tv.  Easy access to the NRG. Several restaurants in the area also. Will definitely stay again. Room 142. It's on the end and close to the road. So expect some traffic noise, it didn't bother my 2 light sleepers.They do offer a free breakfast 6 to 9amMoreShow less</t>
+  </si>
+  <si>
+    <t>Jay P, Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Room was neat and clean. 1st time ever for one of the kids not to sleep on a roll away bed or fold out. Room had 3 beds. 2 queens and a double. Double had it's own little private hide away. Couldn't find it at 1st. Only draw back was it needed a tv.  Easy access to the NRG. Several restaurants in the area also. Will definitely stay again. Room 142. It's on the end and close to the road. So expect some traffic noise, it didn't bother my 2 light sleepers.They do offer a free breakfast 6 to 9amMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r554623546-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -258,9 +360,6 @@
     <t>Stayed here because my dad was in the hospital. We asked for the medical rate and was told it was $85 a night. We found out another couple was given a different rate. Not.knowing how long my dad would be in the hospital, they said we could pay/reserve daily. So, we check in. We were told the beds were queen, but I guarantee they are doubles...small. The bathtub had a big blue stain and leaked. The telephone fell apart when we picked it up to call the desk about the free shuttle service they offered (which, by the way, was also a joke). We went to bed and woke to make it to the free breakfast. Haha...It was donuts, bread for toast, apples, bananas and cereal. Anyway, we dealt with it. Took the shuttle to the hospital and then, due to freezing conditions in Houston, called to check when the shuttle would be running. They said they shut it down. What??? I asked how we were supposed to get back and why they hadn't called us. It wasn't 2 minutes later they called us back to tell us the shuttle would be there in 5 minutes to pick us up. We finally get back to the hotel and find our beds were stripped, but they did leave our luggage and belongings there for us. That morning we did book the room for another night. The office personnel looked dazed and...Stayed here because my dad was in the hospital. We asked for the medical rate and was told it was $85 a night. We found out another couple was given a different rate. Not.knowing how long my dad would be in the hospital, they said we could pay/reserve daily. So, we check in. We were told the beds were queen, but I guarantee they are doubles...small. The bathtub had a big blue stain and leaked. The telephone fell apart when we picked it up to call the desk about the free shuttle service they offered (which, by the way, was also a joke). We went to bed and woke to make it to the free breakfast. Haha...It was donuts, bread for toast, apples, bananas and cereal. Anyway, we dealt with it. Took the shuttle to the hospital and then, due to freezing conditions in Houston, called to check when the shuttle would be running. They said they shut it down. What??? I asked how we were supposed to get back and why they hadn't called us. It wasn't 2 minutes later they called us back to tell us the shuttle would be there in 5 minutes to pick us up. We finally get back to the hotel and find our beds were stripped, but they did leave our luggage and belongings there for us. That morning we did book the room for another night. The office personnel looked dazed and confused. The shuttle driver was sent to our room to make beds and get us clean towels and wash cloths. Poor guy. While he was there we had him fix our phone. He had to replace two different cords. So...third day we wake to same nasty breakfast, minus donuts, and book the room for that night. Shuttle not running due to the weather. However, roads were good. I drove to the hospital without any difficulty. Come back for the night and the rooms were not serviced. Beds not made and dirty towels not replaced. Wow... could it get any worse? Yes! They mess up the billing and tried to bill my aunt for three nights when we had already given them another card to bill for nights 2-3. We didn't think it would ever get straightened out. Well, we were glad to pull out of that hotel. Bad experience all around. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Stayed here because my dad was in the hospital. We asked for the medical rate and was told it was $85 a night. We found out another couple was given a different rate. Not.knowing how long my dad would be in the hospital, they said we could pay/reserve daily. So, we check in. We were told the beds were queen, but I guarantee they are doubles...small. The bathtub had a big blue stain and leaked. The telephone fell apart when we picked it up to call the desk about the free shuttle service they offered (which, by the way, was also a joke). We went to bed and woke to make it to the free breakfast. Haha...It was donuts, bread for toast, apples, bananas and cereal. Anyway, we dealt with it. Took the shuttle to the hospital and then, due to freezing conditions in Houston, called to check when the shuttle would be running. They said they shut it down. What??? I asked how we were supposed to get back and why they hadn't called us. It wasn't 2 minutes later they called us back to tell us the shuttle would be there in 5 minutes to pick us up. We finally get back to the hotel and find our beds were stripped, but they did leave our luggage and belongings there for us. That morning we did book the room for another night. The office personnel looked dazed and...Stayed here because my dad was in the hospital. We asked for the medical rate and was told it was $85 a night. We found out another couple was given a different rate. Not.knowing how long my dad would be in the hospital, they said we could pay/reserve daily. So, we check in. We were told the beds were queen, but I guarantee they are doubles...small. The bathtub had a big blue stain and leaked. The telephone fell apart when we picked it up to call the desk about the free shuttle service they offered (which, by the way, was also a joke). We went to bed and woke to make it to the free breakfast. Haha...It was donuts, bread for toast, apples, bananas and cereal. Anyway, we dealt with it. Took the shuttle to the hospital and then, due to freezing conditions in Houston, called to check when the shuttle would be running. They said they shut it down. What??? I asked how we were supposed to get back and why they hadn't called us. It wasn't 2 minutes later they called us back to tell us the shuttle would be there in 5 minutes to pick us up. We finally get back to the hotel and find our beds were stripped, but they did leave our luggage and belongings there for us. That morning we did book the room for another night. The office personnel looked dazed and confused. The shuttle driver was sent to our room to make beds and get us clean towels and wash cloths. Poor guy. While he was there we had him fix our phone. He had to replace two different cords. So...third day we wake to same nasty breakfast, minus donuts, and book the room for that night. Shuttle not running due to the weather. However, roads were good. I drove to the hospital without any difficulty. Come back for the night and the rooms were not serviced. Beds not made and dirty towels not replaced. Wow... could it get any worse? Yes! They mess up the billing and tried to bill my aunt for three nights when we had already given them another card to bill for nights 2-3. We didn't think it would ever get straightened out. Well, we were glad to pull out of that hotel. Bad experience all around. More</t>
   </si>
   <si>
@@ -315,6 +414,48 @@
     <t>My girls and I stayed here. The staff was very friendly and was very helpful. It was a very family setting. Was very quit the rooms very clean. All staff treated you like family. Very reasonable in price. Also very close to the hospital and all kinds of stores and restaurants. I highly recommend for you to stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r504146348-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504146348</t>
+  </si>
+  <si>
+    <t>Great room, great price!</t>
+  </si>
+  <si>
+    <t>Our room had just been totally remodeled. Very clean. Full kitchen with dishes and pans! Would be wonderful for a long stay. Everyone one was super nice and friendly. You can walk to shopping just across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our room had just been totally remodeled. Very clean. Full kitchen with dishes and pans! Would be wonderful for a long stay. Everyone one was super nice and friendly. You can walk to shopping just across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r499784433-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499784433</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Everytime i go there, the service is always excellent. Highly recommend it. I really enjoyed my time here. it is right next to mdanderson which makes going to the hospital easier and less stressful. Overall great.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Jay P, Front Office Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Everytime i go there, the service is always excellent. Highly recommend it. I really enjoyed my time here. it is right next to mdanderson which makes going to the hospital easier and less stressful. Overall great.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r464037686-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -357,9 +498,6 @@
     <t>Very happy with our stay. Family run business and they do genuinely care. Rooms are very basic but clean. You do get a flat screen tv and a larger sized mini fridge than you would normally expect. Happened to notice that when checking out the family gets to know the guests staying for medical center visits and goes out of their way to help them with anything they may need. We stayed in room 226 - just know they do not have elevators. Walking distance to many restaurants &amp; the stadium. Reasonably close to downtown and Rice Village too. They have a shuttle van but we did not use it. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Very happy with our stay. Family run business and they do genuinely care. Rooms are very basic but clean. You do get a flat screen tv and a larger sized mini fridge than you would normally expect. Happened to notice that when checking out the family gets to know the guests staying for medical center visits and goes out of their way to help them with anything they may need. We stayed in room 226 - just know they do not have elevators. Walking distance to many restaurants &amp; the stadium. Reasonably close to downtown and Rice Village too. They have a shuttle van but we did not use it. More</t>
   </si>
   <si>
@@ -384,6 +522,51 @@
     <t>Management has done an excellent Job with renovations and updates. The staff is always kind and respectful to us when we stay. The continental breakfast is amazing and they also offer a free shuttle to get to and from MD Anderson. is it the newest no it is not, however the service the ownership and staff give each guest is the best I have ever gotten. I will only stay at this hotel as you can't put a price on excellent servicethank youMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r388488407-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388488407</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Short stay</t>
+  </si>
+  <si>
+    <t>Had a short stay in houston medical center for medical appointment. Room was clean. Basic accommodations. Limited cable selection. Wifi was slow at times but free. Grab and go style breakfast. Shuttle service to medical center. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Had a short stay in houston medical center for medical appointment. Room was clean. Basic accommodations. Limited cable selection. Wifi was slow at times but free. Grab and go style breakfast. Shuttle service to medical center. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r380637677-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380637677</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>MD Anderson stay</t>
+  </si>
+  <si>
+    <t>The Econo Lodge at the medical center in Houston is a good place to stay if you are a patient. There is a shuttle but we didn't use it. The medical rate is good. They have continental breakfast which is ok although they don't like you to bring it to the room. We are stressed out enough when we are here I would prefer to have breakfast in my room. They also are not pet friendly which is a drawback for me. The last time we stayed they had a lamp with an extension cord electric taped to make it work. I gave it back to the maintenance man and he looked surprise that I would not want that in my room. But asides from poor preventive maintenance this is a good clean motel with a fair rate for patients at the medical center. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Jay P, Manager at Americas Best Value Inn- near NRG Park/Medical Center, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>The Econo Lodge at the medical center in Houston is a good place to stay if you are a patient. There is a shuttle but we didn't use it. The medical rate is good. They have continental breakfast which is ok although they don't like you to bring it to the room. We are stressed out enough when we are here I would prefer to have breakfast in my room. They also are not pet friendly which is a drawback for me. The last time we stayed they had a lamp with an extension cord electric taped to make it work. I gave it back to the maintenance man and he looked surprise that I would not want that in my room. But asides from poor preventive maintenance this is a good clean motel with a fair rate for patients at the medical center. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r366029062-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -453,6 +636,48 @@
     <t>My goal was to get a clean room within walking distance of NRG stadium and that is exactly what we got. I reserved a non smoking room. We got a smoking room but the only way we knew was due to the placement of ashtrays - no smoke smell. The mattresses were firm. The pillows were a little lacking. Not a 5 star hotel but that is not what you are paying for either. Its a good cheap deal!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r309650629-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309650629</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Perfect Location if you need the Medical Center</t>
+  </si>
+  <si>
+    <t>Econo Lodge did nothing to stand out as far as a motel.  The breakfast was plain, there was no WiFi, at least we didn't pick up any, but then again you get what you pay for. The restroom was no in the best condition, the drain was clogged, but I unclogged it, it was not difficult to do. The ceiling was peeling and a few cracks in the walls. The ac unit was dirty, but it is something that can easily be fixed.I will give them credit because they do provide a shuttle to and from the medical center, that was our reason for staying there. The first room had a broken fridge but they kindly moved us to another room. The staff was super kind. Walking distance to several food locations. There is an elevator if stairs are too hard. We stayed there for 2 weeks due to a surgery in our family so what we got what we paid for.I would stay there again with the medical discount.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Econo Lodge did nothing to stand out as far as a motel.  The breakfast was plain, there was no WiFi, at least we didn't pick up any, but then again you get what you pay for. The restroom was no in the best condition, the drain was clogged, but I unclogged it, it was not difficult to do. The ceiling was peeling and a few cracks in the walls. The ac unit was dirty, but it is something that can easily be fixed.I will give them credit because they do provide a shuttle to and from the medical center, that was our reason for staying there. The first room had a broken fridge but they kindly moved us to another room. The staff was super kind. Walking distance to several food locations. There is an elevator if stairs are too hard. We stayed there for 2 weeks due to a surgery in our family so what we got what we paid for.I would stay there again with the medical discount.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r302269432-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302269432</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Much-needed facelift!</t>
+  </si>
+  <si>
+    <t>I last stayed here in Aug 2014, and hardly recognized the place! The dumpy old office was relocated to area where pool had been. Most people don't come here to swim so in my opinion that is no loss. Now there is a modern office/check-in and breakfast area. My room was refreshed too, with new drapes, bedspread, and new window air conditioner. Rooms still have a small fridge and microwave, which is very handy. And they still provide the convenient hourly shuttle service to the Medical Center. You can walk to Walgreens, CVS, and even a Kroger. The rooms are clean, comfortable, and the office staff and shuttle drivers are friendly.There is a new Smoothie King sharing the parking lot if you find the breakfast lacking. If you are in the area for medical reason, ask for the medical rate, and I don't think you'll find a better value anywhere else. Thumbs-up on the remodel!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I last stayed here in Aug 2014, and hardly recognized the place! The dumpy old office was relocated to area where pool had been. Most people don't come here to swim so in my opinion that is no loss. Now there is a modern office/check-in and breakfast area. My room was refreshed too, with new drapes, bedspread, and new window air conditioner. Rooms still have a small fridge and microwave, which is very handy. And they still provide the convenient hourly shuttle service to the Medical Center. You can walk to Walgreens, CVS, and even a Kroger. The rooms are clean, comfortable, and the office staff and shuttle drivers are friendly.There is a new Smoothie King sharing the parking lot if you find the breakfast lacking. If you are in the area for medical reason, ask for the medical rate, and I don't think you'll find a better value anywhere else. Thumbs-up on the remodel!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r282119853-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -507,6 +732,45 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r242983342-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242983342</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Good for an overnight</t>
+  </si>
+  <si>
+    <t>The room was clean. The place was actually quiet for such a busy traffic area. Be careful -- the wooden mattress frame was placed on the floor with no toe room so I kicked it a couple of times. The other tenants we saw looked a bit run down, but we experienced no problems. Considering the low price we got our money's worth.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r242008636-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242008636</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Budget but clean</t>
+  </si>
+  <si>
+    <t>Had to go to MD Anderson for a week of tests &amp; didn't have a lot of money. A friend who's been going over 15 yrs to MDA w/her husband recommended this hotel. It's NOT fancy, but it is clean, although our room did have a slight odor, more from the "air  freshner" they used I think...No bugs &amp; the sm. fridge, microwave &amp; coffee pot were a welcome bonus. FYI, call direct &amp; tell them you're a patient, they'll give you a discounted rate. Shuttles every hr &amp; those are LIFE savers when you are like us &amp; from a sm. town &amp; not used to that traffic!! And tip the drivers even if a couple bucks..it helps them remember you &amp; when it's cold &amp; you're waiting for a pick up...it's worth every penny.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Had to go to MD Anderson for a week of tests &amp; didn't have a lot of money. A friend who's been going over 15 yrs to MDA w/her husband recommended this hotel. It's NOT fancy, but it is clean, although our room did have a slight odor, more from the "air  freshner" they used I think...No bugs &amp; the sm. fridge, microwave &amp; coffee pot were a welcome bonus. FYI, call direct &amp; tell them you're a patient, they'll give you a discounted rate. Shuttles every hr &amp; those are LIFE savers when you are like us &amp; from a sm. town &amp; not used to that traffic!! And tip the drivers even if a couple bucks..it helps them remember you &amp; when it's cold &amp; you're waiting for a pick up...it's worth every penny.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r212648712-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -559,6 +823,39 @@
   </si>
   <si>
     <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r191262534-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191262534</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Safe and Friendly</t>
+  </si>
+  <si>
+    <t>We stayed for a night while in transit.  The receptionist was very friendly and our room, though basic, was fine.  We felt perfectly safe.  The price was right.  The cleanliness of the place was within acceptable standards.  The continental breakfast was basic but the fruit selection was good and the coffee was excellent.  We would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r190747313-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190747313</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>30 years out of date</t>
+  </si>
+  <si>
+    <t>What a dump. Stayed with my family after getting stuck in the storm of Jan 14 big mistake.Awful place rooms were basic and I feared for our safety. Staff were arrogant and unfriendly.Pay the extra and get somewhere decent.1 good point the airport is 10 minutes away and you can escape.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r168099959-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
@@ -627,6 +924,45 @@
     <t>What impressed me about this hotel is it's compassionate intention.  The focus of this location is to serve patients and their families who are in Houston to receive treatment at the cancer medical centers.  They serve those who are going through a tough time, not those who are on vacation, and this sets their priorities.  The pool area is soon to be converted into a larger reception and waiting area, to accommodate those waiting for the shuttle to the medical center.  This hotel will turn down the opportunity to make more money on event visitors, to keep the prices low for medical center visitors.  They aren't making a lot of money, but are consistently incurring good karma!  One of the priorities is to keep the rooms very clean for patients whose physical health is fragile.  I found the staff to be kind, warm, and caring.  So if you are looking for luxury on vacation, this isn't created for you.  If you and your family need an inexpensive but clean room, kind staff, and a free shuttle to the medical center, this hotel is here serve you in your time of need.  We stayed here while attending a meeting, and found it felt good to stay here, and didn't miss the luxury.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r115974680-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115974680</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Too little for too many $$$</t>
+  </si>
+  <si>
+    <t>The room was just OK, but for a total of over $80 a night, not really worth it.  The "suite" included a small room with a many-stained couch, a ceiling fan that wouldn't turn off, and very little light!  The "kitchen" had a small dining table, a  microwave, small fridge, and a counter.  No sink!As for the free continental breakfast, cheap, cheap, cheap.  The only bread (white bread) looked like something from the day-old bakery.  Would not recommend this one to any friend of mine!  The only good thing about it was it was within six miles of downtown Houston's convention center and the managers were nice enough.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r89460748-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89460748</t>
+  </si>
+  <si>
+    <t>12/09/2010</t>
+  </si>
+  <si>
+    <t>Our time of grief was made so much easier, Thank You</t>
+  </si>
+  <si>
+    <t>We arrived from Arizona on Thanksgiving night to spend a nice holiday with a brother in Houston, only to find him in the hospital dying of cancer.  It was unplanned, but just by chance, to be close to the hospital, we found this Econo lodge.  The employees were very kind and attentive, the room and bed were very comfortable, we had free daily papers, coffee, shuttle to the hospital (cost $13 daily for parking @ the hospital) and they even discounted our room to ease the unexpected expense.  What a wonderful group of employees!  I would like to say THANK YOU for your compassion.  We stayed here 3 nights, and although I never got a full nights sleep, it was one of the best hotels for the price we have found.  If you are on a budget and looking for great place to stay in the medical center area of Houston, this is your place!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>We arrived from Arizona on Thanksgiving night to spend a nice holiday with a brother in Houston, only to find him in the hospital dying of cancer.  It was unplanned, but just by chance, to be close to the hospital, we found this Econo lodge.  The employees were very kind and attentive, the room and bed were very comfortable, we had free daily papers, coffee, shuttle to the hospital (cost $13 daily for parking @ the hospital) and they even discounted our room to ease the unexpected expense.  What a wonderful group of employees!  I would like to say THANK YOU for your compassion.  We stayed here 3 nights, and although I never got a full nights sleep, it was one of the best hotels for the price we have found.  If you are on a budget and looking for great place to stay in the medical center area of Houston, this is your place!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r72410806-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -673,6 +1009,48 @@
   </si>
   <si>
     <t>Cheesy room, dirty carpet, no elevator, only provide shuttle service to the hospital. The pool looks like something you don't want to get in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r46950842-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>46950842</t>
+  </si>
+  <si>
+    <t>10/15/2009</t>
+  </si>
+  <si>
+    <t>Don't Stay Here!!</t>
+  </si>
+  <si>
+    <t>On my 1st trip to Md Anderson, we were told by the hospital we would probably need to stay the night in Houston. We ran in this hotel and reserved a room on our way to the hospital, we didn't even unpack our lugguage. Went to the hospital that afternoon, and was told we could go on home. After explaining to the manager at the front desk what happened, we were told they do not give refunds. We went on up to the room and it stank so bad, and the employees were horribly rude! You would think that they would keep up with their hotel, especially since most people staying there are probably Md Anderson patients. I would never recommend anyone going to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>On my 1st trip to Md Anderson, we were told by the hospital we would probably need to stay the night in Houston. We ran in this hotel and reserved a room on our way to the hospital, we didn't even unpack our lugguage. Went to the hospital that afternoon, and was told we could go on home. After explaining to the manager at the front desk what happened, we were told they do not give refunds. We went on up to the room and it stank so bad, and the employees were horribly rude! You would think that they would keep up with their hotel, especially since most people staying there are probably Md Anderson patients. I would never recommend anyone going to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r26204866-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26204866</t>
+  </si>
+  <si>
+    <t>03/15/2009</t>
+  </si>
+  <si>
+    <t>good thing this is located near the medical center, you might catch something</t>
+  </si>
+  <si>
+    <t>Stayed at this location on 3/12/09.  When I did the reservation it was for a non-smoking room.  Weather was bad so I didn't get there until around 9 pm.  I got a smoking room (which I can live with).  The desk clerk could make you like rude people.  There was no one else in the office and it took about 15 minutes.  All of that is the good part of my visit.  When I got to the room (235) someone had blown their nose on the wall (I figured no one would believe me so I took a pic with my camera phone (it's attached).  As I mentioned, the weather was cold and rainy so I turned on the heat.  The most foul smell permeated the room.  It smelled like someone had urinated on the exposed fins of the heat/ac unit.  If you are even tempted to book a room here, stay in your car, it's safer.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>Stayed at this location on 3/12/09.  When I did the reservation it was for a non-smoking room.  Weather was bad so I didn't get there until around 9 pm.  I got a smoking room (which I can live with).  The desk clerk could make you like rude people.  There was no one else in the office and it took about 15 minutes.  All of that is the good part of my visit.  When I got to the room (235) someone had blown their nose on the wall (I figured no one would believe me so I took a pic with my camera phone (it's attached).  As I mentioned, the weather was cold and rainy so I turned on the heat.  The most foul smell permeated the room.  It smelled like someone had urinated on the exposed fins of the heat/ac unit.  If you are even tempted to book a room here, stay in your car, it's safer.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d142353-r14285489-Americas_Best_Value_Inn_near_NRG_Park_Medical_Center-Houston_Texas.html</t>
@@ -1264,7 +1642,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1274,14 +1652,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1329,22 +1703,22 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
         <v>5</v>
       </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1353,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
         <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1375,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1384,47 +1758,47 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
         <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
         <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1440,7 +1814,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1449,37 +1823,47 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="X5" t="s">
         <v>80</v>
       </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
       <c r="Y5" t="s">
         <v>81</v>
       </c>
@@ -1524,25 +1908,29 @@
         <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -1558,7 +1946,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1567,25 +1955,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1597,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1619,7 +2007,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1628,25 +2016,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1658,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -1680,7 +2068,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1689,25 +2077,25 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1718,12 +2106,8 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>96</v>
-      </c>
-      <c r="X9" t="s">
-        <v>97</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
         <v>114</v>
       </c>
@@ -1768,29 +2152,25 @@
         <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -1806,7 +2186,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1815,47 +2195,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1871,7 +2247,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1880,49 +2256,47 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
         <v>136</v>
-      </c>
-      <c r="X12" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -1938,7 +2312,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1947,47 +2321,49 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
         <v>140</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>141</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>142</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
         <v>143</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>135</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>136</v>
-      </c>
       <c r="X13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2003,7 +2379,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2012,25 +2388,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2041,10 +2417,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" t="s">
+        <v>153</v>
+      </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
@@ -2060,7 +2440,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2069,43 +2449,43 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>129</v>
+      </c>
+      <c r="X15" t="s">
+        <v>130</v>
+      </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -2121,7 +2501,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2130,43 +2510,47 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>129</v>
+      </c>
+      <c r="X16" t="s">
+        <v>130</v>
+      </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
@@ -2182,7 +2566,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2191,49 +2575,43 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>129</v>
+      </c>
+      <c r="X17" t="s">
+        <v>130</v>
+      </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -2249,7 +2627,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2258,22 +2636,26 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -2283,10 +2665,14 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>130</v>
+      </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
@@ -2302,7 +2688,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2311,39 +2697,47 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>129</v>
+      </c>
+      <c r="X19" t="s">
+        <v>130</v>
+      </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
@@ -2359,7 +2753,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2368,49 +2762,49 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
@@ -2426,7 +2820,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2435,49 +2829,47 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
         <v>4</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -2493,7 +2885,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2502,38 +2894,34 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
       </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>4</v>
@@ -2544,7 +2932,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
@@ -2560,7 +2948,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2569,39 +2957,43 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -2617,7 +3009,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2626,49 +3018,39 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
@@ -2684,7 +3066,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2693,41 +3075,35 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2735,7 +3111,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
@@ -2751,7 +3127,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2760,41 +3136,35 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2802,7 +3172,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
@@ -2818,7 +3188,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2827,47 +3197,39 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -2883,7 +3245,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -2892,35 +3254,1195 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="J28" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>235</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>256</v>
+      </c>
+      <c r="O29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" t="s">
+        <v>189</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>273</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>274</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>288</v>
+      </c>
+      <c r="J35" t="s">
+        <v>289</v>
+      </c>
+      <c r="K35" t="s">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s">
+        <v>291</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>292</v>
+      </c>
+      <c r="O35" t="s">
+        <v>189</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>301</v>
+      </c>
+      <c r="J37" t="s">
+        <v>302</v>
+      </c>
+      <c r="K37" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" t="s">
+        <v>304</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>305</v>
+      </c>
+      <c r="O37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>307</v>
+      </c>
+      <c r="J38" t="s">
+        <v>308</v>
+      </c>
+      <c r="K38" t="s">
+        <v>309</v>
+      </c>
+      <c r="L38" t="s">
+        <v>310</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>311</v>
+      </c>
+      <c r="O38" t="s">
+        <v>189</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>318</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>318</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>324</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>325</v>
+      </c>
+      <c r="J41" t="s">
+        <v>326</v>
+      </c>
+      <c r="K41" t="s">
+        <v>327</v>
+      </c>
+      <c r="L41" t="s">
+        <v>328</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>318</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>330</v>
+      </c>
+      <c r="J42" t="s">
+        <v>331</v>
+      </c>
+      <c r="K42" t="s">
+        <v>332</v>
+      </c>
+      <c r="L42" t="s">
+        <v>333</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>334</v>
+      </c>
+      <c r="O42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>337</v>
+      </c>
+      <c r="J43" t="s">
+        <v>338</v>
+      </c>
+      <c r="K43" t="s">
+        <v>339</v>
+      </c>
+      <c r="L43" t="s">
+        <v>340</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>341</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>344</v>
+      </c>
+      <c r="J44" t="s">
+        <v>345</v>
+      </c>
+      <c r="K44" t="s">
+        <v>346</v>
+      </c>
+      <c r="L44" t="s">
+        <v>347</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>348</v>
+      </c>
+      <c r="O44" t="s">
+        <v>88</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>351</v>
+      </c>
+      <c r="J45" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s">
+        <v>354</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>21824</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
